--- a/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -622,7 +623,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,27 +633,27 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -662,17 +663,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,19%</t>
         </is>
       </c>
     </row>
@@ -685,54 +686,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0,0; 1,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,19</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,9</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,12 +743,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -757,32 +758,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,43%</t>
         </is>
       </c>
     </row>
@@ -795,54 +796,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 1,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,7</t>
+          <t>0; 0,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 1,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,76</t>
+          <t>0,2; 2,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 0,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 0,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,11; 1,27</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -905,54 +906,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 20,75</t>
+          <t>0,22; 2,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 4,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,82; 3,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 18,74</t>
+          <t>0,44; 2,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 2,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,81</t>
+          <t>0,0; 0,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0,44; 1,72</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 2,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,53</t>
+          <t>0,49; 1,77</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,32%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>1,87; 4,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,11</t>
+          <t>0,99; 7,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,48</t>
+          <t>0,94; 3,39</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>0,8; 2,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,85</t>
+          <t>1,53; 4,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,76; 3,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>1,52; 3,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,88</t>
+          <t>1,51; 4,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,82</t>
+          <t>1,07; 2,71</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>12,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>4,87%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,29%</t>
+          <t>8,68%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1126,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>7,75; 12,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>9,11; 15,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>6,25; 12,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,1</t>
+          <t>2,14; 4,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,89</t>
+          <t>3,12; 7,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 1,96</t>
+          <t>4,17; 8,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,23</t>
+          <t>5,24; 7,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>6,91; 10,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,04</t>
+          <t>6,05; 9,87</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>13,46%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>17,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>8,04%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>15,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>10,66%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>11,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1236,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,73</t>
+          <t>10,79; 16,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,54</t>
+          <t>13,71; 22,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,45</t>
+          <t>18,79; 25,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>6,07; 10,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,94</t>
+          <t>2,67; 16,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,92</t>
+          <t>12,21; 18,71</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,54; 2,06</t>
+          <t>9,0; 12,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,16</t>
+          <t>4,59; 17,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,68</t>
+          <t>16,33; 21,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>25,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>14,69%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>17,53%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>25,06%</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1346,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,28</t>
+          <t>18,1; 25,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,05; 8,02</t>
+          <t>20,71; 31,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,95</t>
+          <t>21,77; 30,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,48</t>
+          <t>12,27; 17,71</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 3,97</t>
+          <t>22,68; 31,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,37</t>
+          <t>20,74; 28,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,9</t>
+          <t>15,38; 19,89</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,49</t>
+          <t>22,94; 29,69</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 3,24</t>
+          <t>22,5; 28,48</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9,58%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>6,64%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>6,59%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1456,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,97; 13,09</t>
+          <t>6,86; 8,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>10,28; 15,26</t>
+          <t>4,81; 8,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,65</t>
+          <t>6,71; 8,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,54; 9,34</t>
+          <t>4,34; 5,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,24</t>
+          <t>4,19; 6,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,55; 5,14</t>
+          <t>5,91; 7,6</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,29; 10,1</t>
+          <t>5,69; 6,79</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,25; 10,95</t>
+          <t>5,15; 7,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>5,32; 7,74</t>
+          <t>6,52; 7,72</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>22,4%</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>20,83%</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>13,07%</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>15,61%</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>12,71%</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>8,05%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>10,51%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>18,99; 26,14</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>18,02; 24,65</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>10,84; 15,47</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>12,74; 19,38</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 16,87</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>6,24; 10,21</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>17,21; 21,71</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>10,47; 18,93</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>8,92; 12,14</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>26,04%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>28,05%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>20,32%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>24,85%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>29,38%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>14,69%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>25,41%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>28,85%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>17,03%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>22,12; 29,97</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>24,15; 32,31</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>17,2; 23,72</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>21,09; 28,7</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>26,21; 32,41</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>12,65; 17,44</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>22,95; 28,09</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>26,47; 31,31</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>15,08; 18,92</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>10,6%</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>8,81%</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>6,49%</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>8,44%</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>7,3%</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>4,42%</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>9,52%</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>8,01%</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>5,43%</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>9,49; 11,81</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>7,88; 9,75</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>5,81; 7,2</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 9,48</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 8,04</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>3,92; 5,03</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>8,77; 10,24</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>7,44; 8,66</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>4,99; 5,86</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -1856,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Consumo de medicamentos para la diabetes</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16/24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1594</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 4766</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3194</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 344</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2970</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1207</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1516</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3789</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3719</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25/34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 334</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2857</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>0; 1206</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>81; 1144</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2414</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>413; 4652</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>80; 1200</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2590</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>414; 5013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35/44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>735</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5334</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1052</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>4372</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1787</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9706</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4869</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>210; 2193</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2106; 13384</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2029; 8676</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>433; 2357</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>1890; 9236</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2215</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>851; 3300</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4876; 16840</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2451; 8780</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45/54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>4053</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>23094</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5533</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2156</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>10398</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>4719</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6210</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>33492</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>10252</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>2610; 6156</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6221; 44444</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>2784; 10068</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1104; 3695</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6193; 16934</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2127; 8633</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4216; 8712</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>15604; 49462</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6138; 15591</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55/64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>12651</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>41599</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>21344</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4926</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>15520</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>16358</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>17577</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>57119</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>37702</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9836; 16018</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30891; 53213</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>14661; 29295</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3160; 7142</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>9946; 22325</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10608; 22649</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>14369; 21552</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>45460; 70646</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29596; 48252</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65/74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>14486</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>36625</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>40868</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>9237</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>38067</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>28907</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>23722</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>74692</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>69775</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11610; 17906</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>28524; 46649</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>34590; 47264</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>6971; 12233</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>12085; 74681</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>23036; 35299</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>20025; 27847</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>30317; 113895</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>60878; 79708</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 y más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>20692</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>38549</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>37465</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>19674</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>62659</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>52385</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>40366</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>101209</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>89850</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17442; 24738</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>31435; 47195</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>31941; 44367</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>16436; 23720</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>52971; 73301</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>43921; 60967</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>35425; 45806</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>88421; 114402</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>80653; 102122</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>53039</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>145201</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>110274</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>37441</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>131016</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>104514</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>90480</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>276217</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>214789</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>47822; 59411</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>101159; 174507</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>98165; 123755</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>32806; 43274</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>93524; 153894</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>92400; 118903</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>82695; 98726</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>223315; 318768</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>197440; 233650</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
@@ -691,7 +691,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -701,17 +701,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -796,17 +796,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0; 4766</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0; 344</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0; 2970</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0; 1207</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0; 3789</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -1929,17 +1929,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 334</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2857</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 1206</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2414</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1964,7 +1964,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2590</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes</t>
+          <t>Consumo de medicamentos para la diabetes (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1559,7 +1559,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de medicamentos para la diabetes</t>
+          <t>Consumo de medicamentos para la diabetes (tasa de respuesta: 99,66%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
@@ -633,7 +633,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,0; 2,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,21</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,83</t>
+          <t>0,11; 3,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,91</t>
+          <t>0,05; 1,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>1,07%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -906,12 +906,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 2,32</t>
+          <t>0,31; 2,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,31</t>
+          <t>0,66; 3,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 2,42</t>
+          <t>0,47; 2,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,86</t>
+          <t>0,57; 2,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 1,72</t>
+          <t>0,49; 2,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,66</t>
+          <t>0,82; 2,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -978,7 +978,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,42</t>
+          <t>1,93; 4,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,99; 7,09</t>
+          <t>1,16; 6,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1031,12 +1031,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,68</t>
+          <t>0,9; 3,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,53; 4,18</t>
+          <t>1,57; 3,97</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1046,12 +1046,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,14</t>
+          <t>1,65; 3,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 4,79</t>
+          <t>1,46; 4,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1126,12 +1126,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,63</t>
+          <t>6,71; 11,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,11; 15,69</t>
+          <t>9,48; 16,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1141,12 +1141,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,85</t>
+          <t>1,59; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,0</t>
+          <t>3,32; 6,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 7,86</t>
+          <t>4,28; 6,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,91; 10,74</t>
+          <t>6,8; 10,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>13,46%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>8,14%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,96%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,79; 16,64</t>
+          <t>11,08; 17,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,71; 22,42</t>
+          <t>13,42; 21,92</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,65</t>
+          <t>6,21; 10,71</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,67; 16,5</t>
+          <t>1,98; 16,45</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1266,12 +1266,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>9,0; 12,51</t>
+          <t>9,3; 12,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,59; 17,24</t>
+          <t>4,49; 17,25</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>22,34%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>13,33%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>16,96%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,1; 25,67</t>
+          <t>18,59; 26,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,71; 31,1</t>
+          <t>19,48; 30,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1361,12 +1361,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 17,71</t>
+          <t>11,05; 16,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,68; 31,38</t>
+          <t>22,77; 30,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,38; 19,89</t>
+          <t>14,96; 19,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,94; 29,69</t>
+          <t>23,01; 29,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>6,86; 8,53</t>
+          <t>6,37; 7,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,3</t>
+          <t>4,73; 8,36</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,34; 5,72</t>
+          <t>3,77; 5,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,9</t>
+          <t>4,11; 6,9</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,69; 6,79</t>
+          <t>5,25; 6,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,36</t>
+          <t>5,06; 7,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>414</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>414</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0; 1594</t>
+          <t>0; 1649</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0; 1516</t>
+          <t>0; 1617</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1891,7 +1891,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>655</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>655</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1944,7 +1944,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>81; 1144</t>
+          <t>75; 2065</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>80; 1200</t>
+          <t>74; 2043</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>735</t>
+          <t>1033</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1052</t>
+          <t>1261</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>2294</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -2092,12 +2092,12 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>210; 2193</t>
+          <t>320; 2590</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2106; 13384</t>
+          <t>2054; 11945</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -2107,12 +2107,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>433; 2357</t>
+          <t>515; 2566</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1890; 9236</t>
+          <t>1830; 8690</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>851; 3300</t>
+          <t>1050; 4376</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4876; 16840</t>
+          <t>5192; 16897</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -2202,7 +2202,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4053</t>
+          <t>4382</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2156</t>
+          <t>2555</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -2232,7 +2232,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6210</t>
+          <t>6936</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2610; 6156</t>
+          <t>2791; 6527</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6221; 44444</t>
+          <t>7263; 43796</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1104; 3695</t>
+          <t>1371; 4673</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6193; 16934</t>
+          <t>6359; 16086</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -2285,12 +2285,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4216; 8712</t>
+          <t>4910; 9660</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15604; 49462</t>
+          <t>15066; 50264</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12651</t>
+          <t>11317</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -2380,7 +2380,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4926</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2395,7 +2395,7 @@
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17577</t>
+          <t>14994</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>9836; 16018</t>
+          <t>8700; 14323</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>30891; 53213</t>
+          <t>32139; 55171</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -2433,12 +2433,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>3160; 7142</t>
+          <t>2411; 5469</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>9946; 22325</t>
+          <t>10572; 21925</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -2448,12 +2448,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>14369; 21552</t>
+          <t>12047; 18574</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>45460; 70646</t>
+          <t>44714; 70363</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14486</t>
+          <t>14711</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>9237</t>
+          <t>9429</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>23722</t>
+          <t>24139</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2581,12 +2581,12 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>11610; 17906</t>
+          <t>11572; 17766</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>28524; 46649</t>
+          <t>27916; 45614</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>6971; 12233</t>
+          <t>7186; 12402</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>12085; 74681</t>
+          <t>8944; 74460</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>20025; 27847</t>
+          <t>20491; 28278</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>30317; 113895</t>
+          <t>29692; 113984</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -2691,7 +2691,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>20692</t>
+          <t>19934</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>19674</t>
+          <t>17638</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>40366</t>
+          <t>37572</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -2744,12 +2744,12 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>17442; 24738</t>
+          <t>16590; 23369</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>31435; 47195</t>
+          <t>29571; 46905</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>16436; 23720</t>
+          <t>14617; 21172</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>52971; 73301</t>
+          <t>53185; 71614</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>35425; 45806</t>
+          <t>33140; 42588</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>88421; 114402</t>
+          <t>88659; 113522</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>53039</t>
+          <t>51791</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -2869,7 +2869,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>37441</t>
+          <t>35214</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>90480</t>
+          <t>87004</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>47822; 59411</t>
+          <t>46120; 57747</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>101159; 174507</t>
+          <t>99360; 175727</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -2922,12 +2922,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>32806; 43274</t>
+          <t>30038; 40203</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>93524; 153894</t>
+          <t>91748; 153863</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -2937,12 +2937,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>82695; 98726</t>
+          <t>79875; 95019</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>223315; 318768</t>
+          <t>219324; 317059</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
+++ b/data/trans_dic/CONS_DIA-Edad-trans_dic.xlsx
@@ -563,47 +563,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -633,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,54%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0,19%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>0,29%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,19%</t>
         </is>
       </c>
     </row>
@@ -686,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,88</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 2,15</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,88</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,09</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>0,0; 1,13</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,09</t>
         </is>
       </c>
     </row>
@@ -758,32 +758,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,96%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,8%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,43%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
         </is>
       </c>
     </row>
@@ -811,32 +811,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,11; 3,04</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 2,2</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
         <is>
           <t>0,05; 1,43</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,11; 1,27</t>
         </is>
       </c>
     </row>
@@ -853,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,76%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,99%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>1,58%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,18%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>1,14%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,36%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,18%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>0,98%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>1,07%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,53%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,98%</t>
         </is>
       </c>
     </row>
@@ -906,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,75; 3,83</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0,82; 3,49</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>0,31; 2,49</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,66; 3,84</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 3,49</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>0,72; 3,13</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 0,89</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>0,47; 2,32</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 2,69</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,89</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
+          <t>0,93; 2,8</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 1,77</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>0,49; 2,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,82; 2,67</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 1,77</t>
         </is>
       </c>
     </row>
@@ -963,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>5,72%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>3,03%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,68%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,86%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1,69%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1,67%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,69%</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>2,33%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>3,25%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,78%</t>
         </is>
       </c>
     </row>
@@ -1016,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>3,66; 8,62</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 3,39</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,93; 4,51</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 6,98</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,94; 3,39</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>1,57; 3,94</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0,76; 3,09</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>0,9; 3,06</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>1,57; 3,97</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 3,09</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>2,87; 5,54</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 2,71</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>1,65; 3,25</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,46; 4,87</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,07; 2,71</t>
         </is>
       </c>
     </row>
@@ -1073,47 +1073,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>12,37%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>8,73%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>12,27%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,09%</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>4,73%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>2,42%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,44%</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>8,59%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>7,71%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>5,33%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>8,68%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>7,71%</t>
         </is>
       </c>
     </row>
@@ -1126,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>9,76; 16,05</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 12,48</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>6,71; 11,05</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>9,48; 16,27</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 12,48</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>3,17; 6,65</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,17; 8,91</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1,59; 3,6</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>3,32; 6,88</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>4,17; 8,91</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>6,78; 10,6</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 9,87</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>4,28; 6,6</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 10,69</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>6,05; 9,87</t>
         </is>
       </c>
     </row>
@@ -1183,47 +1183,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>22,2%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>14,08%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>17,6%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>22,2%</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>8,14%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>8,41%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>15,32%</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18,72%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>10,96%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>11,3%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>18,72%</t>
         </is>
       </c>
     </row>
@@ -1236,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>13,1; 21,67</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 25,68</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>11,08; 17,01</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>13,42; 21,92</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>18,79; 25,68</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>11,91; 18,85</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>12,21; 18,71</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>6,21; 10,71</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 16,45</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>12,21; 18,71</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>13,6; 18,93</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>16,33; 21,39</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>9,3; 12,84</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>4,49; 17,25</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>16,33; 21,39</t>
         </is>
       </c>
     </row>
@@ -1293,47 +1293,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>25,54%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>22,34%</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>25,4%</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>25,54%</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>26,6%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24,73%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>13,33%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>26,82%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>24,73%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>26,24%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25,06%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>16,96%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>26,26%</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>25,06%</t>
         </is>
       </c>
     </row>
@@ -1346,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>19,72; 31,0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21,77; 30,24</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>18,59; 26,19</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>19,48; 30,9</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>21,77; 30,24</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>22,48; 30,38</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>20,74; 28,78</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>11,05; 16,0</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>22,77; 30,66</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>20,74; 28,78</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>23,06; 29,41</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>22,5; 28,48</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>14,96; 19,22</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>23,01; 29,46</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>22,5; 28,48</t>
         </is>
       </c>
     </row>
@@ -1403,47 +1403,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>7,69%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7,54%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>7,15%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>7,54%</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>6,52%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6,68%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>4,42%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>5,87%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>6,68%</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>7,09%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>5,72%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>6,37%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>7,1%</t>
         </is>
       </c>
     </row>
@@ -1456,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>6,69; 8,9</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 8,46</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>6,37; 7,98</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 8,36</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>6,71; 8,46</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>5,76; 7,4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>5,91; 7,6</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>3,77; 5,04</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>4,11; 6,9</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>5,91; 7,6</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>6,46; 7,81</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 7,72</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>5,25; 6,25</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>5,06; 7,32</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>6,52; 7,72</t>
         </is>
       </c>
     </row>
@@ -1590,47 +1590,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -1660,47 +1660,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
@@ -1713,47 +1713,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>643</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>414</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="F5" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
         <is>
           <t>643</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
+      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>414</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>643</t>
         </is>
       </c>
     </row>
@@ -1766,47 +1766,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3194</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0; 1649</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="F6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0; 3194</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3719</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>0; 1617</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0; 3719</t>
         </is>
       </c>
     </row>
@@ -1838,27 +1838,27 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G7" s="2" t="inlineStr">
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="J7" s="2" t="inlineStr">
         <is>
           <t>3</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1891,32 +1891,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1697</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>655</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>1697</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>655</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>1697</t>
         </is>
       </c>
     </row>
@@ -1944,32 +1944,32 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>413; 4652</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>75; 2065</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>413; 4652</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>414; 5013</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
         <is>
           <t>74; 2043</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>414; 5013</t>
         </is>
       </c>
     </row>
@@ -1986,42 +1986,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -2039,47 +2039,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>6495</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>4421</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1033</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5334</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4421</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>5895</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>1261</t>
         </is>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4372</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>448</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
+          <t>12390</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4869</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>2294</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>9706</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>4869</t>
         </is>
       </c>
     </row>
@@ -2092,47 +2092,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2779; 14118</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2029; 8676</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>320; 2590</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2054; 11945</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2029; 8676</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>2674; 11685</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2215</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>515; 2566</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1830; 8690</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0; 2215</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
+          <t>6897; 20735</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2451; 8780</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>1050; 4376</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>5192; 16897</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2451; 8780</t>
         </is>
       </c>
     </row>
@@ -2149,47 +2149,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>25</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>13</t>
         </is>
       </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>38</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>19</t>
         </is>
       </c>
     </row>
@@ -2202,47 +2202,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>24230</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>5533</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4382</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>23094</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>5533</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>11311</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>4719</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>2555</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>10398</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>4719</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
+          <t>35541</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>10252</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>6936</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>33492</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>10252</t>
         </is>
       </c>
     </row>
@@ -2255,47 +2255,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>15527; 36529</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2784; 10068</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>2791; 6527</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>7263; 43796</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2784; 10068</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>6933; 17369</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>2127; 8633</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>1371; 4673</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>6359; 16086</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>2127; 8633</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
+          <t>24863; 47965</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>6138; 15591</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>4910; 9660</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>15066; 50264</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>6138; 15591</t>
         </is>
       </c>
     </row>
@@ -2312,47 +2312,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>68</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>27</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>95</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>66</t>
         </is>
       </c>
     </row>
@@ -2365,47 +2365,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>45532</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21344</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>11317</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>41599</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>21344</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>17054</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>16358</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>3676</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>15520</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>16358</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
+          <t>62586</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>37702</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>14994</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>57119</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>37702</t>
         </is>
       </c>
     </row>
@@ -2418,47 +2418,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>35913; 59077</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>14661; 29295</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>8700; 14323</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>32139; 55171</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>14661; 29295</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>11407; 23962</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>10608; 22649</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>2411; 5469</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>10572; 21925</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>10608; 22649</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
+          <t>49381; 77195</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>29596; 48252</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>12047; 18574</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>44714; 70363</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>29596; 48252</t>
         </is>
       </c>
     </row>
@@ -2475,47 +2475,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>90</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>129</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>54</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>144</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>205</t>
         </is>
       </c>
     </row>
@@ -2528,47 +2528,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>39723</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>40868</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
           <t>14711</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>36625</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>40868</t>
-        </is>
-      </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>41316</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>28907</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
           <t>9429</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>38067</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>28907</t>
-        </is>
-      </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
+          <t>81038</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>69775</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
           <t>24139</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>74692</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>69775</t>
         </is>
       </c>
     </row>
@@ -2581,47 +2581,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
+          <t>30297; 50112</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34590; 47264</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>11572; 17766</t>
         </is>
       </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>27916; 45614</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>34590; 47264</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
+          <t>32165; 50908</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>23036; 35299</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
           <t>7186; 12402</t>
         </is>
       </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>8944; 74460</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>23036; 35299</t>
-        </is>
-      </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
+          <t>68196; 94902</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>60878; 79708</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
           <t>20491; 28278</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>29692; 113984</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>60878; 79708</t>
         </is>
       </c>
     </row>
@@ -2638,47 +2638,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
           <t>119</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>128</t>
-        </is>
-      </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
           <t>115</t>
         </is>
       </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
           <t>234</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>185</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>259</t>
         </is>
       </c>
     </row>
@@ -2691,47 +2691,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
+          <t>42528</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>37465</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
           <t>19934</t>
         </is>
       </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>38549</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>37465</t>
-        </is>
-      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
+          <t>68263</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>52385</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>17638</t>
         </is>
       </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>62659</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>52385</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
+          <t>110791</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>89850</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
           <t>37572</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>101209</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>89850</t>
         </is>
       </c>
     </row>
@@ -2744,47 +2744,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>32657; 51336</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>31941; 44367</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
           <t>16590; 23369</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>29571; 46905</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>31941; 44367</t>
-        </is>
-      </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
+          <t>57689; 77956</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>43921; 60967</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
           <t>14617; 21172</t>
         </is>
       </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>53185; 71614</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>43921; 60967</t>
-        </is>
-      </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
+          <t>97338; 124173</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>80653; 102122</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
           <t>33140; 42588</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>88659; 113522</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>80653; 102122</t>
         </is>
       </c>
     </row>
@@ -2801,47 +2801,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
           <t>308</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>197</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>314</t>
-        </is>
-      </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
           <t>218</t>
         </is>
       </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>249</t>
-        </is>
-      </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>563</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
           <t>526</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>444</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>563</t>
         </is>
       </c>
     </row>
@@ -2854,47 +2854,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>158507</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>110274</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
           <t>51791</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>145201</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>110274</t>
-        </is>
-      </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
+          <t>143839</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>104514</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
           <t>35214</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>131016</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>104514</t>
-        </is>
-      </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
+          <t>302346</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>214789</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
           <t>87004</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>276217</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>214789</t>
         </is>
       </c>
     </row>
@@ -2907,47 +2907,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>137748; 183299</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>98165; 123755</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
           <t>46120; 57747</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>99360; 175727</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>98165; 123755</t>
-        </is>
-      </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
+          <t>126890; 163082</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>92400; 118903</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
           <t>30038; 40203</t>
         </is>
       </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>91748; 153863</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>92400; 118903</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
+          <t>275327; 332929</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>197440; 233650</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
           <t>79875; 95019</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>219324; 317059</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>197440; 233650</t>
         </is>
       </c>
     </row>
